--- a/05-Dataset5_org-ap-ep/04-SHACL/Dataset5_MEP-Shapes.xlsx
+++ b/05-Dataset5_org-ap-ep/04-SHACL/Dataset5_MEP-Shapes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="190">
   <si>
     <t xml:space="preserve">Shapes URI</t>
   </si>
@@ -216,6 +216,69 @@
     <t xml:space="preserve">"http://data.europarl.europa.eu/resource/contact-point/.*/.*$"</t>
   </si>
   <si>
+    <t xml:space="preserve">References to external classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://publications.europa.eu/resource/authority/country/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://publications.europa.eu/resource/authority/place/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Civility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/civility/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:ContactPointType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type d’information de contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Point Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/contact-point-type-type/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/gender/.*$"</t>
+  </si>
+  <si>
     <t xml:space="preserve">This sheet specifies constraints that are attached to the NodeShapes specified in the first sheet</t>
   </si>
   <si>
@@ -375,9 +438,6 @@
     <t xml:space="preserve">civility</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/civility/.*$"</t>
-  </si>
-  <si>
     <t xml:space="preserve">skos:notation</t>
   </si>
   <si>
@@ -390,27 +450,12 @@
     <t xml:space="preserve">gender</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/gender/.*$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep-org:Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/conceptStatus/.*$"</t>
-  </si>
-  <si>
     <t xml:space="preserve">schema:birthPlace</t>
   </si>
   <si>
     <t xml:space="preserve">birth place</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://publications.europa.eu/resource/authority/place/.*$"</t>
-  </si>
-  <si>
     <t xml:space="preserve">ep-org:curriculumVitae</t>
   </si>
   <si>
@@ -456,9 +501,6 @@
     <t xml:space="preserve">nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://publications.europa.eu/resource/authority/country/.*$"</t>
-  </si>
-  <si>
     <t xml:space="preserve">schema:contactPoint</t>
   </si>
   <si>
@@ -481,9 +523,6 @@
   </si>
   <si>
     <t xml:space="preserve">contact type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/contact-point-type-type/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">schema:url</t>
@@ -619,6 +658,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -632,15 +678,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +700,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF729FCF"/>
         <bgColor rgb="FF969696"/>
       </patternFill>
@@ -674,7 +719,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFEBF1DE"/>
       </patternFill>
     </fill>
   </fills>
@@ -715,7 +760,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -780,23 +825,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -804,23 +861,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,7 +907,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
@@ -902,13 +959,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
@@ -1134,7 +1191,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="57.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>46</v>
       </c>
@@ -1158,7 +1215,7 @@
         <v>49</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>50</v>
@@ -1190,7 +1247,7 @@
         <v>54</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>55</v>
@@ -1226,6 +1283,9 @@
       <c r="G14" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="H14" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1248,20 +1308,166 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" s="17" customFormat="true" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>11</v>
+      </c>
       <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>12</v>
+      </c>
       <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>13</v>
+      </c>
       <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1270,6 +1476,11 @@
     <hyperlink ref="G10" r:id="rId3" display="rdfs:label@en"/>
     <hyperlink ref="I10" r:id="rId4" display="rdfs:comment@en"/>
     <hyperlink ref="K13" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$&quot;"/>
+    <hyperlink ref="K18" r:id="rId6" display="&quot;^http://publications.europa.eu/resource/authority/country/.*$&quot;"/>
+    <hyperlink ref="K19" r:id="rId7" display="&quot;^http://publications.europa.eu/resource/authority/place/.*$&quot;"/>
+    <hyperlink ref="K20" r:id="rId8" display="&quot;^http://data.europarl.europa.eu/authority/civility/.*$&quot;"/>
+    <hyperlink ref="K21" r:id="rId9" display="&quot;^http://data.europarl.europa.eu/authority/contact-point-type-type/.*$&quot;"/>
+    <hyperlink ref="K22" r:id="rId10" display="&quot;^http://data.europarl.europa.eu/authority/gender/.*$&quot;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1286,15 +1497,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ50"/>
+  <dimension ref="A1:AMJ49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="T20" activeCellId="0" sqref="T20"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
@@ -1306,7 +1517,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="54.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="26"/>
@@ -1356,7 +1568,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -1385,140 +1597,140 @@
     </row>
     <row r="7" s="11" customFormat="true" ht="73.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="E8" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>91</v>
+      <c r="H8" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>34</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="T9" s="20"/>
+        <v>115</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="T8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="U8" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" s="22" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="T9" s="23"/>
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1527,7 +1739,7 @@
         <v>epsh:P10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>37</v>
@@ -1536,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>1</v>
@@ -1548,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="R10" s="1"/>
     </row>
@@ -1558,7 +1770,7 @@
         <v>epsh:P11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>37</v>
@@ -1567,10 +1779,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>1</v>
@@ -1579,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1588,7 +1800,7 @@
         <v>epsh:P12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>37</v>
@@ -1597,10 +1809,10 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>1</v>
@@ -1609,10 +1821,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="R12" s="1"/>
     </row>
@@ -1622,7 +1834,7 @@
         <v>epsh:P13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
@@ -1631,10 +1843,10 @@
         <v>4</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>1</v>
@@ -1643,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,7 +1867,7 @@
         <v>epsh:P14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>37</v>
@@ -1664,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>42</v>
@@ -1675,9 +1887,10 @@
       <c r="I14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M14" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="L14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="str">
@@ -1685,7 +1898,7 @@
         <v>epsh:P15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>37</v>
@@ -1694,10 +1907,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>1</v>
@@ -1706,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,7 +1928,7 @@
         <v>epsh:P16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
@@ -1724,7 +1937,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>42</v>
@@ -1735,9 +1948,10 @@
       <c r="I16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M16" s="15" t="s">
-        <v>121</v>
-      </c>
+      <c r="L16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="str">
@@ -1745,29 +1959,30 @@
         <v>epsh:P17</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M17" s="15" t="s">
-        <v>124</v>
-      </c>
+      <c r="L17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="str">
@@ -1775,86 +1990,88 @@
         <v>epsh:P18</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="H18" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="S18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="T18" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A19))</f>
         <v>epsh:P19</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="M19" s="15"/>
-      <c r="S19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="T19" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T19" s="24"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A20))</f>
         <v>epsh:P20</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>1</v>
@@ -1863,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M20" s="15"/>
-      <c r="T20" s="21"/>
+      <c r="T20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="str">
@@ -1874,19 +2091,19 @@
         <v>epsh:P21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>1</v>
@@ -1895,10 +2112,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="M21" s="15"/>
-      <c r="T21" s="21"/>
+      <c r="T21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="str">
@@ -1906,19 +2123,19 @@
         <v>epsh:P22</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>1</v>
@@ -1927,10 +2144,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M22" s="15"/>
-      <c r="T22" s="21"/>
+      <c r="T22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="str">
@@ -1938,19 +2155,19 @@
         <v>epsh:P23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>1</v>
@@ -1958,11 +2175,11 @@
       <c r="I23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="0" t="s">
-        <v>106</v>
+      <c r="L23" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="M23" s="15"/>
-      <c r="T23" s="21"/>
+      <c r="T23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="str">
@@ -1970,16 +2187,16 @@
         <v>epsh:P24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>42</v>
@@ -1988,93 +2205,93 @@
         <v>1</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="T24" s="21"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="T24" s="24"/>
+    </row>
+    <row r="25" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A25))</f>
         <v>epsh:P25</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="0" t="s">
+      <c r="D25" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="H25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="M25" s="27"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="26"/>
+      <c r="AMJ25" s="0"/>
+    </row>
+    <row r="27" s="22" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T27" s="23"/>
+      <c r="AMJ27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A28))</f>
+        <v>epsh:P28</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="T25" s="21"/>
-    </row>
-    <row r="26" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A26))</f>
-        <v>epsh:P26</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22" t="s">
+      <c r="D28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="23"/>
-      <c r="AMJ26" s="0"/>
-    </row>
-    <row r="28" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="T28" s="20"/>
-      <c r="AMJ28" s="0"/>
+      <c r="H28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="str">
@@ -2082,28 +2299,28 @@
         <v>epsh:P29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M29" s="15" t="s">
-        <v>152</v>
+      <c r="J29" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2112,19 +2329,19 @@
         <v>epsh:P30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
@@ -2133,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,19 +2359,19 @@
         <v>epsh:P31</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
@@ -2163,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,19 +2389,19 @@
         <v>epsh:P32</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>0</v>
@@ -2193,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,19 +2419,19 @@
         <v>epsh:P33</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>0</v>
@@ -2223,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,19 +2449,19 @@
         <v>epsh:P34</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>0</v>
@@ -2252,9 +2469,10 @@
       <c r="I34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J34" s="0" t="s">
-        <v>106</v>
-      </c>
+      <c r="L34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="str">
@@ -2262,16 +2480,16 @@
         <v>epsh:P35</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>42</v>
@@ -2282,46 +2500,47 @@
       <c r="I35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M35" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A36))</f>
-        <v>epsh:P36</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" s="15" t="s">
+      <c r="L35" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="37" s="22" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="T37" s="23"/>
+      <c r="AMJ37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A38))</f>
+        <v>epsh:P38</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="0" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="T38" s="20"/>
-      <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="str">
@@ -2329,19 +2548,19 @@
         <v>epsh:P39</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>1</v>
@@ -2350,28 +2569,28 @@
         <v>1</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A40))</f>
         <v>epsh:P40</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>108</v>
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>1</v>
@@ -2380,28 +2599,32 @@
         <v>1</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A41))</f>
         <v>epsh:P41</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>110</v>
+        <v>4</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>1</v>
@@ -2410,12 +2633,11 @@
         <v>1</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="R41" s="1"/>
+        <v>132</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="str">
@@ -2423,19 +2645,19 @@
         <v>epsh:P42</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>1</v>
@@ -2443,11 +2665,8 @@
       <c r="I42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J42" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>111</v>
+      <c r="U42" s="0" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,19 +2675,19 @@
         <v>epsh:P43</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>169</v>
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>1</v>
@@ -2476,8 +2695,8 @@
       <c r="I43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U43" s="0" t="s">
-        <v>170</v>
+      <c r="J43" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,19 +2705,19 @@
         <v>epsh:P44</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>136</v>
+        <v>7</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>1</v>
@@ -2506,129 +2725,88 @@
       <c r="I44" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J44" s="0" t="s">
-        <v>106</v>
+      <c r="L44" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A45))</f>
-        <v>epsh:P45</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="G45" s="0" t="s">
+      <c r="M45" s="15"/>
+    </row>
+    <row r="47" s="22" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="T47" s="23"/>
+      <c r="AMJ47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A48))</f>
+        <v>epsh:P48</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="H45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M46" s="15"/>
-    </row>
-    <row r="48" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="T48" s="20"/>
-      <c r="AMJ48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48" s="15"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A49))</f>
         <v>epsh:P49</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>42</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A50))</f>
-        <v>epsh:P50</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R50" s="0" t="s">
-        <v>176</v>
+      <c r="R49" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes/meps"/>
     <hyperlink ref="E8" r:id="rId2" display="sh:name@en"/>
-    <hyperlink ref="M14" r:id="rId3" display="&quot;^http://data.europarl.europa.eu/authority/civility/.*$&quot;"/>
-    <hyperlink ref="M16" r:id="rId4" display="&quot;^http://data.europarl.europa.eu/authority/gender/.*$&quot;"/>
-    <hyperlink ref="M17" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/authority/conceptStatus/.*$&quot;"/>
-    <hyperlink ref="M18" r:id="rId6" display="&quot;^http://publications.europa.eu/resource/authority/place/.*$&quot;"/>
-    <hyperlink ref="M24" r:id="rId7" display="&quot;^http://publications.europa.eu/resource/authority/country/.*$&quot;"/>
-    <hyperlink ref="M29" r:id="rId8" display="&quot;^http://data.europarl.europa.eu/authority/contact-point-type-type/.*$&quot;"/>
-    <hyperlink ref="M35" r:id="rId9" display="&quot;^http://publications.europa.eu/resource/authority/country/.*$&quot;"/>
-    <hyperlink ref="M36" r:id="rId10" display="&quot;^http://publications.europa.eu/resource/authority/place/.*$&quot;"/>
-    <hyperlink ref="M49" r:id="rId11" display="&quot;^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?$&quot;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/05-Dataset5_org-ap-ep/04-SHACL/Dataset5_MEP-Shapes.xlsx
+++ b/05-Dataset5_org-ap-ep/04-SHACL/Dataset5_MEP-Shapes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="233">
   <si>
     <t xml:space="preserve">Shapes URI</t>
   </si>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">sh:IRI</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?$"</t>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/person/[0-9]{1,6}$"</t>
   </si>
   <si>
     <t xml:space="preserve">true</t>
@@ -161,6 +161,18 @@
     <t xml:space="preserve">(rdf:type)</t>
   </si>
   <si>
+    <t xml:space="preserve">epsh:MembershipMEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appartenance MEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEP membership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mandate of an MEP</t>
+  </si>
+  <si>
     <t xml:space="preserve">epsh:Assistant</t>
   </si>
   <si>
@@ -168,8 +180,8 @@
   </si>
   <si>
     <t xml:space="preserve">PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
-SELECT?this WHERE {
- ?this org:hasMembership?m .
+SELECT ?this WHERE {
+ ?this org:hasMembership ?m .
  ?m org:role &lt;http://data.europarl.europa.eu/authority/function/ASSISTANT&gt; .
 }</t>
   </si>
@@ -180,9 +192,6 @@
     <t xml:space="preserve">An assistant to an MEP.</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?$"</t>
-  </si>
-  <si>
     <t xml:space="preserve">epsh:MembershipAssistant</t>
   </si>
   <si>
@@ -195,7 +204,7 @@
     <t xml:space="preserve">A relation between an Assistant and its MEP. An assistant may assist more than 1 MEP.</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$"</t>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/person/[0-9]{1,6}/membership/[0-9]{1,6}$"</t>
   </si>
   <si>
     <t xml:space="preserve">epsh:ContactPoint</t>
@@ -213,7 +222,7 @@
     <t xml:space="preserve">Contact Point info for a MEP</t>
   </si>
   <si>
-    <t xml:space="preserve">"http://data.europarl.europa.eu/resource/contact-point/.*/.*$"</t>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/contact-point/electronic/[0-9]{1,6}/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">References to external classes</t>
@@ -264,7 +273,7 @@
     <t xml:space="preserve">Contact Point Type</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/contact-point-type-type/.*$"</t>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/contact-point-type/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">epsh:Gender</t>
@@ -279,6 +288,72 @@
     <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/gender/.*$"</t>
   </si>
   <si>
+    <t xml:space="preserve">epsh:ParliamentaryTerm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Législature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parliamentary Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/parliamentary-term/[0-9][0-9]?$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:MembershipType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type d’appartenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membership Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/membership-type/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/function/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Constituency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constituency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/constituency/.*-.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/org/.*-.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://publications.europa.eu/resource/authority/site/.*$"</t>
+  </si>
+  <si>
     <t xml:space="preserve">This sheet specifies constraints that are attached to the NodeShapes specified in the first sheet</t>
   </si>
   <si>
@@ -423,9 +498,6 @@
     <t xml:space="preserve">upper first name</t>
   </si>
   <si>
-    <t xml:space="preserve">"^[^a-z]*$"</t>
-  </si>
-  <si>
     <t xml:space="preserve">ep-org:upperFamilyName</t>
   </si>
   <si>
@@ -438,12 +510,6 @@
     <t xml:space="preserve">civility</t>
   </si>
   <si>
-    <t xml:space="preserve">skos:notation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notation</t>
-  </si>
-  <si>
     <t xml:space="preserve">schema:gender</t>
   </si>
   <si>
@@ -513,9 +579,6 @@
     <t xml:space="preserve">membership</t>
   </si>
   <si>
-    <t xml:space="preserve">epsh:MembershipMEP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Constraints on ContactPoint</t>
   </si>
   <si>
@@ -549,22 +612,91 @@
     <t xml:space="preserve">email</t>
   </si>
   <si>
-    <t xml:space="preserve">schema:officeId</t>
+    <t xml:space="preserve">schema:addressCountry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:addressLocality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address locality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:hasSite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:officeId</t>
   </si>
   <si>
     <t xml:space="preserve">office ID</t>
   </si>
   <si>
-    <t xml:space="preserve">schema:addressCountry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:addressLocality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address locality</t>
+    <t xml:space="preserve">Constraints on Membership MEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:hasMembershipType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">membership type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:startDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:endDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:hasOrganization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">([sh:node epsh:Organization] [sh:node epsh:Country])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:hasParliamentaryTerm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parliamentary term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:constituency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constituency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:hasMembershipBasedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">based on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org:role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc:identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandate id (only on mandates)</t>
   </si>
   <si>
     <t xml:space="preserve">Constraints on Assistants</t>
@@ -576,7 +708,72 @@
     <t xml:space="preserve">person type</t>
   </si>
   <si>
-    <t xml:space="preserve">http://data.europarl.europa.eu/authority/person-type/AST-APA</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">( &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://data.europarl.europa.eu/authority/person-type/AST-APA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://data.europarl.europa.eu/authority/person-type/AST-APA-GRP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://data.europarl.europa.eu/authority/person-type/AST-LOC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt; )</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">has membership</t>
@@ -585,24 +782,22 @@
     <t xml:space="preserve">Constraints on MembershipAssistant</t>
   </si>
   <si>
-    <t xml:space="preserve">org:organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theoretically points to Shape MEP, but this constraint is removed when validating converted files, because Assistant and MEP are in different source files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(org:Membership ep-org:MembershipAssistant)</t>
+    <t xml:space="preserve">http://data.europarl.europa.eu/authority/membership-type/PERSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rôle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://data.europarl.europa.eu/authority/function/ASSISTANT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -679,7 +874,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,12 +903,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF729FCF"/>
         <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -760,7 +949,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -817,12 +1006,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -861,23 +1050,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -959,13 +1136,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
@@ -976,7 +1153,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="42.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="84.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="100.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="24.57"/>
   </cols>
@@ -1181,7 +1358,7 @@
       <c r="J11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="14" t="s">
         <v>43</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1191,40 +1368,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="0"/>
+      <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(A12,"-target")</f>
-        <v>epsh:Assistant-target</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>51</v>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>44</v>
@@ -1233,30 +1395,40 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f aca="false">_xlfn.CONCAT(A13,"-target")</f>
+        <v>epsh:Assistant-target</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>56</v>
+      <c r="J13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>44</v>
@@ -1265,35 +1437,30 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="1" t="s">
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>62</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>44</v>
@@ -1303,75 +1470,82 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="1"/>
+      <c r="A15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="1"/>
     </row>
-    <row r="17" s="17" customFormat="true" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="1" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" s="17" customFormat="true" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="15" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H19" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="15" t="s">
-        <v>71</v>
+      <c r="K19" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>44</v>
@@ -1382,26 +1556,26 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="H20" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="15" t="s">
-        <v>75</v>
+      <c r="K20" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>44</v>
@@ -1412,26 +1586,26 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H21" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="15" t="s">
-        <v>79</v>
+      <c r="K21" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>44</v>
@@ -1442,30 +1616,235 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1475,12 +1854,20 @@
     <hyperlink ref="F10" r:id="rId2" display="rdfs:label@fr"/>
     <hyperlink ref="G10" r:id="rId3" display="rdfs:label@en"/>
     <hyperlink ref="I10" r:id="rId4" display="rdfs:comment@en"/>
-    <hyperlink ref="K13" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$&quot;"/>
-    <hyperlink ref="K18" r:id="rId6" display="&quot;^http://publications.europa.eu/resource/authority/country/.*$&quot;"/>
-    <hyperlink ref="K19" r:id="rId7" display="&quot;^http://publications.europa.eu/resource/authority/place/.*$&quot;"/>
-    <hyperlink ref="K20" r:id="rId8" display="&quot;^http://data.europarl.europa.eu/authority/civility/.*$&quot;"/>
-    <hyperlink ref="K21" r:id="rId9" display="&quot;^http://data.europarl.europa.eu/authority/contact-point-type-type/.*$&quot;"/>
-    <hyperlink ref="K22" r:id="rId10" display="&quot;^http://data.europarl.europa.eu/authority/gender/.*$&quot;"/>
+    <hyperlink ref="K11" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/person/[0-9]{1,6}$&quot;"/>
+    <hyperlink ref="K13" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/person/[0-9]{1,6}$&quot;"/>
+    <hyperlink ref="K14" r:id="rId7" display="&quot;^http://data.europarl.europa.eu/person/[0-9]{1,6}/membership/[0-9]{1,6}$&quot;"/>
+    <hyperlink ref="K15" r:id="rId8" display="&quot;^http://data.europarl.europa.eu/resource/contact-point/electronic/[0-9]{1,6}/.*$&quot;"/>
+    <hyperlink ref="K19" r:id="rId9" display="&quot;^http://publications.europa.eu/resource/authority/country/.*$&quot;"/>
+    <hyperlink ref="K20" r:id="rId10" display="&quot;^http://publications.europa.eu/resource/authority/place/.*$&quot;"/>
+    <hyperlink ref="K21" r:id="rId11" display="&quot;^http://data.europarl.europa.eu/authority/civility/.*$&quot;"/>
+    <hyperlink ref="K22" r:id="rId12" display="&quot;^http://data.europarl.europa.eu/authority/contact-point-type/.*$&quot;"/>
+    <hyperlink ref="K23" r:id="rId13" display="&quot;^http://data.europarl.europa.eu/authority/gender/.*$&quot;"/>
+    <hyperlink ref="K24" r:id="rId14" display="&quot;^http://data.europarl.europa.eu/authority/parliamentary-term/[0-9][0-9]?$&quot;"/>
+    <hyperlink ref="K25" r:id="rId15" display="&quot;^http://data.europarl.europa.eu/authority/membership-type/.*$&quot;"/>
+    <hyperlink ref="K26" r:id="rId16" display="&quot;^http://data.europarl.europa.eu/authority/function/.*$&quot;"/>
+    <hyperlink ref="K27" r:id="rId17" display="&quot;^http://data.europarl.europa.eu/authority/constituency/.*-.*$&quot;"/>
+    <hyperlink ref="K28" r:id="rId18" display="&quot;^http://data.europarl.europa.eu/org/.*-.*$&quot;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1497,15 +1884,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ49"/>
+  <dimension ref="A1:AMJ61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
@@ -1518,7 +1905,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="54.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="26"/>
@@ -1568,7 +1955,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -1597,67 +1984,67 @@
     </row>
     <row r="7" s="11" customFormat="true" ht="73.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="AMJ7" s="0"/>
     </row>
@@ -1666,69 +2053,69 @@
         <v>25</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>34</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="R8" s="20" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="S8" s="20" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="T8" s="20" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="U8" s="20" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" s="22" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="T9" s="23"/>
       <c r="AMJ9" s="0"/>
@@ -1739,7 +2126,7 @@
         <v>epsh:P10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>37</v>
@@ -1748,10 +2135,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>1</v>
@@ -1760,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="R10" s="1"/>
     </row>
@@ -1770,7 +2157,7 @@
         <v>epsh:P11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>37</v>
@@ -1779,10 +2166,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>1</v>
@@ -1791,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1800,7 +2187,7 @@
         <v>epsh:P12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>37</v>
@@ -1809,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>1</v>
@@ -1821,11 +2208,9 @@
         <v>1</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M12" s="15"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,7 +2219,7 @@
         <v>epsh:P13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
@@ -1843,10 +2228,10 @@
         <v>4</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>1</v>
@@ -1855,11 +2240,9 @@
         <v>1</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="str">
@@ -1867,7 +2250,7 @@
         <v>epsh:P14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>37</v>
@@ -1876,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>42</v>
@@ -1888,9 +2271,9 @@
         <v>1</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="str">
@@ -1898,7 +2281,7 @@
         <v>epsh:P15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>37</v>
@@ -1907,10 +2290,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>1</v>
@@ -1918,9 +2301,10 @@
       <c r="I15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J15" s="0" t="s">
-        <v>127</v>
-      </c>
+      <c r="L15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="str">
@@ -1928,7 +2312,7 @@
         <v>epsh:P16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
@@ -1937,21 +2321,21 @@
         <v>7</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>42</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="str">
@@ -1959,87 +2343,85 @@
         <v>epsh:P17</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>142</v>
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="S17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="T17" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A18))</f>
         <v>epsh:P18</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" s="15"/>
-      <c r="S18" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="T18" s="24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="T18" s="24"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A19))</f>
         <v>epsh:P19</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>1</v>
@@ -2048,9 +2430,9 @@
         <v>1</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="M19" s="15"/>
+        <v>152</v>
+      </c>
+      <c r="M19" s="14"/>
       <c r="T19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,20 +2441,20 @@
         <v>epsh:P20</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>126</v>
-      </c>
       <c r="H20" s="1" t="n">
         <v>1</v>
       </c>
@@ -2080,9 +2462,9 @@
         <v>1</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="M20" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="M20" s="14"/>
       <c r="T20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,19 +2473,19 @@
         <v>epsh:P21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>1</v>
@@ -2112,9 +2494,9 @@
         <v>1</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="M21" s="15"/>
+        <v>152</v>
+      </c>
+      <c r="M21" s="14"/>
       <c r="T21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,19 +2505,19 @@
         <v>epsh:P22</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>1</v>
@@ -2143,10 +2525,10 @@
       <c r="I22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="M22" s="15"/>
+      <c r="L22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="14"/>
       <c r="T22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,112 +2537,102 @@
         <v>epsh:P23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M23" s="15"/>
+      <c r="L23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="14"/>
       <c r="T23" s="24"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="str">
+    <row r="24" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="25" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A24))</f>
         <v>epsh:P24</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="15"/>
-      <c r="T24" s="24"/>
-    </row>
-    <row r="25" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A25))</f>
-        <v>epsh:P25</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="26" t="n">
-        <v>8</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="26"/>
-      <c r="AMJ25" s="0"/>
-    </row>
-    <row r="27" s="22" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="T27" s="23"/>
-      <c r="AMJ27" s="0"/>
+        <v>46</v>
+      </c>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="15"/>
+    </row>
+    <row r="26" s="22" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="T26" s="23"/>
+      <c r="AMJ26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A27))</f>
+        <v>epsh:P27</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="str">
@@ -2268,30 +2640,29 @@
         <v>epsh:P28</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L28" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="M28" s="15"/>
+      <c r="J28" s="0" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="str">
@@ -2299,19 +2670,19 @@
         <v>epsh:P29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
@@ -2320,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,19 +2700,19 @@
         <v>epsh:P30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
@@ -2350,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,19 +2730,19 @@
         <v>epsh:P31</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
@@ -2380,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,19 +2760,19 @@
         <v>epsh:P32</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>0</v>
@@ -2409,9 +2780,10 @@
       <c r="I32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J32" s="0" t="s">
-        <v>127</v>
-      </c>
+      <c r="L32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="M32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="str">
@@ -2419,19 +2791,19 @@
         <v>epsh:P33</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>0</v>
@@ -2439,9 +2811,10 @@
       <c r="I33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J33" s="0" t="s">
-        <v>127</v>
-      </c>
+      <c r="L33" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="str">
@@ -2449,16 +2822,16 @@
         <v>epsh:P34</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>42</v>
@@ -2470,9 +2843,9 @@
         <v>1</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M34" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="M34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="str">
@@ -2480,19 +2853,19 @@
         <v>epsh:P35</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>0</v>
@@ -2500,25 +2873,24 @@
       <c r="I35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="M35" s="15"/>
+      <c r="J35" s="0" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="37" s="22" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="22" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="T37" s="23"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A38))</f>
         <v>epsh:P38</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>46</v>
@@ -2527,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>1</v>
@@ -2538,17 +2910,18 @@
       <c r="I38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J38" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L38" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A39))</f>
         <v>epsh:P39</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>46</v>
@@ -2557,10 +2930,10 @@
         <v>2</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>1</v>
@@ -2569,16 +2942,17 @@
         <v>1</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A40))</f>
         <v>epsh:P40</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>46</v>
@@ -2586,11 +2960,11 @@
       <c r="D40" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>131</v>
+      <c r="E40" s="0" t="s">
+        <v>209</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>1</v>
@@ -2599,12 +2973,9 @@
         <v>1</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="R40" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="M40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="str">
@@ -2612,7 +2983,7 @@
         <v>epsh:P41</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>46</v>
@@ -2621,10 +2992,10 @@
         <v>4</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>1</v>
@@ -2632,11 +3003,9 @@
       <c r="I41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J41" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>132</v>
+      <c r="M41" s="14"/>
+      <c r="N41" s="0" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,7 +3014,7 @@
         <v>epsh:P42</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>46</v>
@@ -2654,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>42</v>
@@ -2665,17 +3034,18 @@
       <c r="I42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U42" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L42" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A43))</f>
         <v>epsh:P43</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>46</v>
@@ -2683,21 +3053,22 @@
       <c r="D43" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>151</v>
+      <c r="E43" s="0" t="s">
+        <v>216</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J43" s="0" t="s">
-        <v>127</v>
-      </c>
+      <c r="L43" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="M43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="str">
@@ -2705,7 +3076,7 @@
         <v>epsh:P44</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>46</v>
@@ -2714,7 +3085,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>42</v>
@@ -2726,52 +3097,78 @@
         <v>1</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="M44" s="14"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M45" s="15"/>
-    </row>
-    <row r="47" s="22" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="T47" s="23"/>
-      <c r="AMJ47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A48))</f>
-        <v>epsh:P48</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="M48" s="15"/>
+      <c r="A45" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A45))</f>
+        <v>epsh:P45</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A46))</f>
+        <v>epsh:P46</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="M46" s="14"/>
+    </row>
+    <row r="48" s="22" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="T48" s="23"/>
+      <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="str">
@@ -2779,34 +3176,321 @@
         <v>epsh:P49</v>
       </c>
       <c r="B49" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A50))</f>
+        <v>epsh:P50</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A51))</f>
+        <v>epsh:P51</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="M51" s="15"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A52))</f>
+        <v>epsh:P52</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="M52" s="15"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A53))</f>
+        <v>epsh:P53</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A54))</f>
+        <v>epsh:P54</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A55))</f>
+        <v>epsh:P55</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="1" t="n">
+      <c r="E55" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M56" s="14"/>
+    </row>
+    <row r="58" s="22" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="T58" s="23"/>
+      <c r="AMJ58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A59))</f>
+        <v>epsh:P59</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" s="14"/>
+      <c r="U59" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A60))</f>
+        <v>epsh:P60</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R49" s="0" t="s">
-        <v>189</v>
+      <c r="E60" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M60" s="14"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A61))</f>
+        <v>epsh:P61</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" s="14"/>
+      <c r="U61" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes/meps"/>
     <hyperlink ref="E8" r:id="rId2" display="sh:name@en"/>
+    <hyperlink ref="R53" r:id="rId3" display="http://data.europarl.europa.eu/authority/person-type/AST-APA-GRP"/>
+    <hyperlink ref="U59" r:id="rId4" display="http://data.europarl.europa.eu/authority/membership-type/PERSON"/>
+    <hyperlink ref="U61" r:id="rId5" display="http://data.europarl.europa.eu/authority/function/ASSISTANT"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/05-Dataset5_org-ap-ep/04-SHACL/Dataset5_MEP-Shapes.xlsx
+++ b/05-Dataset5_org-ap-ep/04-SHACL/Dataset5_MEP-Shapes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="class-based shapes" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="234">
   <si>
     <t xml:space="preserve">Shapes URI</t>
   </si>
@@ -220,492 +220,6 @@
   </si>
   <si>
     <t xml:space="preserve">Contact Point info for a MEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/contact-point/electronic/[0-9]{1,6}/.*$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References to external classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsh:Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://publications.europa.eu/resource/authority/country/.*$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsh:Place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://publications.europa.eu/resource/authority/place/.*$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsh:Civility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civilité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/civility/.*$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsh:ContactPointType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type d’information de contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact Point Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/contact-point-type/.*$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsh:Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/gender/.*$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsh:ParliamentaryTerm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Législature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parliamentary Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/parliamentary-term/[0-9][0-9]?$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsh:MembershipType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type d’appartenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membership Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/membership-type/.*$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsh:Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/function/.*$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsh:Constituency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constituency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/constituency/.*-.*$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsh:Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/org/.*-.*$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsh:Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://publications.europa.eu/resource/authority/site/.*$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This sheet specifies constraints that are attached to the NodeShapes specified in the first sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constraint IRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predicate or path on which the constraint applies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NodeShape to which the constraint is applied (a reference to a NodeShape IRI from the first sheet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display order of the property / constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of predicate/path within the context of that NodeShape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description of the predicate/path within the context of that NodeShape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of nodes that the values must have (sh:IRI or sh:Literal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum cardinality that the predicate/path must have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum cardinality that the predicate/path must have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For literal values, the expected datatype of the values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected class that the values of the predicate/path must have, if only one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected shape that the values of the predicate/path must follow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General URI or string pattern expected for the values of the predicate/path, expressed as a regex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected classes that the values of the predicate/path must have, if there are multiple. Expressed as a Turtle list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The shape that must be verified by the qualifiedMin or qualifiedMax count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of time that the shape indicated by sh:qualifiedValueShape must be found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum number of times that the shape indicated by sh:qualifiedValueShape must be found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected possible values for the predicate/path, when the list is small and known in advance. Expressed as a Turtle list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set to true for skos:prefLabel to indicate there should be only one value per langage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List of langage codes expected for this predicate/path. Expressed as a turtle list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allowed value, when there is only one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^sh:property(separator=",")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:name@en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:minCount^^xsd:integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:maxCount^^xsd:integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:datatype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:or</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:qualifiedValueShape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:qualifiedMinCount^^xsd:integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:qualifiedMaxCount^^xsd:integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:uniqueLang^^xsd:boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:languageIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:hasValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constraints on MEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foaf:firstName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">first name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:Literal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xsd:string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foaf:familyName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep-org:upperFirstName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upper first name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep-org:upperFamilyName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upper family name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:honorificPrefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">civility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:birthPlace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep-org:curriculumVitae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curriculum vitae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdf:langString</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("fr" "en")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep-org:dateEndActivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date end of activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xsd:dateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep-org:personId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:birthDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foaf:img</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:contactPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org:hasMembership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">membership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constraints on ContactPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:contactType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:telephone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">telephone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:faxNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fax number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:addressCountry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:addressLocality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address locality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep-org:hasSite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep-org:officeId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">office ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constraints on Membership MEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep-org:hasMembershipType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">membership type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:startDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:endDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep-org:hasOrganization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">([sh:node epsh:Organization] [sh:node epsh:Country])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep-org:hasParliamentaryTerm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parliamentary term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep-org:constituency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constituency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep-org:hasMembershipBasedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">based on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org:role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsh:Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc:identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mandate id (only on mandates)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constraints on Assistants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep-org:hasPersonType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person type</t>
   </si>
   <si>
     <r>
@@ -715,7 +229,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">( &lt;</t>
+      <t xml:space="preserve">"^</t>
     </r>
     <r>
       <rPr>
@@ -725,7 +239,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/authority/person-type/AST-APA</t>
+      <t xml:space="preserve">http://data.europarl.europa.eu/resource/contact-point/(electronic</t>
     </r>
     <r>
       <rPr>
@@ -734,46 +248,497 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&gt; &lt;</t>
+      <t xml:space="preserve">|place)/[0-9]{1,6}/.*$"</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/authority/person-type/AST-APA-GRP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&gt; &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/authority/person-type/AST-LOC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&gt; )</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">References to external classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://publications.europa.eu/resource/authority/country/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://publications.europa.eu/resource/authority/place/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Civility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/civility/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:ContactPointType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type d’information de contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Point Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/contact-point-type/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/gender/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:ParliamentaryTerm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Législature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parliamentary Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/parliamentary-term/[0-9][0-9]?$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:MembershipType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type d’appartenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membership Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/membership-type/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/function/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Constituency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constituency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/constituency/.*-.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/org/.*-.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://publications.europa.eu/resource/authority/site/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This sheet specifies constraints that are attached to the NodeShapes specified in the first sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraint IRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicate or path on which the constraint applies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NodeShape to which the constraint is applied (a reference to a NodeShape IRI from the first sheet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display order of the property / constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of predicate/path within the context of that NodeShape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of the predicate/path within the context of that NodeShape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of nodes that the values must have (sh:IRI or sh:Literal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum cardinality that the predicate/path must have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum cardinality that the predicate/path must have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For literal values, the expected datatype of the values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected class that the values of the predicate/path must have, if only one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected shape that the values of the predicate/path must follow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General URI or string pattern expected for the values of the predicate/path, expressed as a regex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected classes that the values of the predicate/path must have, if there are multiple. Expressed as a Turtle list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The shape that must be verified by the qualifiedMin or qualifiedMax count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of time that the shape indicated by sh:qualifiedValueShape must be found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum number of times that the shape indicated by sh:qualifiedValueShape must be found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected possible values for the predicate/path, when the list is small and known in advance. Expressed as a Turtle list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set to true for skos:prefLabel to indicate there should be only one value per langage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of langage codes expected for this predicate/path. Expressed as a turtle list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowed value, when there is only one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^sh:property(separator=",")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:name@en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:minCount^^xsd:integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:maxCount^^xsd:integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:datatype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:qualifiedValueShape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:qualifiedMinCount^^xsd:integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:qualifiedMaxCount^^xsd:integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:uniqueLang^^xsd:boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:languageIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:hasValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraints on MEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foaf:firstName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:Literal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xsd:string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foaf:familyName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:upperFirstName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper first name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:upperFamilyName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper family name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:honorificPrefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">civility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:birthPlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:curriculumVitae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curriculum vitae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdf:langString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("fr" "en")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:dateEndActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date end of activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xsd:dateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:personId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:birthDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foaf:img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:contactPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org:hasMembership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">membership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraints on ContactPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:contactType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:telephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">telephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:faxNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fax number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:addressCountry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:addressLocality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address locality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:hasSite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:officeId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraints on Membership MEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:hasMembershipType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">membership type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:startDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:endDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:hasOrganization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">([sh:node epsh:Organization] [sh:node epsh:Country])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:hasParliamentaryTerm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parliamentary term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:constituency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constituency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:hasMembershipBasedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">based on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org:role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We cannot enforce a minimum cardinality because mandates don’t have a based on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsh:Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc:identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandate id (only on mandates)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraints on Assistants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep-org:hasPersonType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( &lt;http://data.europarl.europa.eu/authority/person-type/AST-APA&gt; &lt;http://data.europarl.europa.eu/authority/person-type/AST-APA-GRP&gt; &lt;http://data.europarl.europa.eu/authority/person-type/AST-LOC&gt; )</t>
   </si>
   <si>
     <t xml:space="preserve">has membership</t>
@@ -1138,11 +1103,11 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
@@ -1496,7 +1461,7 @@
       <c r="J15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="0" t="s">
         <v>65</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -1857,7 +1822,7 @@
     <hyperlink ref="K11" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/person/[0-9]{1,6}$&quot;"/>
     <hyperlink ref="K13" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/person/[0-9]{1,6}$&quot;"/>
     <hyperlink ref="K14" r:id="rId7" display="&quot;^http://data.europarl.europa.eu/person/[0-9]{1,6}/membership/[0-9]{1,6}$&quot;"/>
-    <hyperlink ref="K15" r:id="rId8" display="&quot;^http://data.europarl.europa.eu/resource/contact-point/electronic/[0-9]{1,6}/.*$&quot;"/>
+    <hyperlink ref="K15" r:id="rId8" display="http://data.europarl.europa.eu/resource/contact-point/(electronic"/>
     <hyperlink ref="K19" r:id="rId9" display="&quot;^http://publications.europa.eu/resource/authority/country/.*$&quot;"/>
     <hyperlink ref="K20" r:id="rId10" display="&quot;^http://publications.europa.eu/resource/authority/place/.*$&quot;"/>
     <hyperlink ref="K21" r:id="rId11" display="&quot;^http://data.europarl.europa.eu/authority/civility/.*$&quot;"/>
@@ -1886,13 +1851,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
@@ -2392,7 +2357,7 @@
         <v>151</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>1</v>
@@ -3091,7 +3056,7 @@
         <v>42</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>1</v>
@@ -3101,7 +3066,7 @@
       </c>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A45))</f>
         <v>epsh:P45</v>
@@ -3118,6 +3083,9 @@
       <c r="E45" s="0" t="s">
         <v>220</v>
       </c>
+      <c r="F45" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="G45" s="0" t="s">
         <v>42</v>
       </c>
@@ -3128,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M45" s="14"/>
     </row>
@@ -3138,7 +3106,7 @@
         <v>epsh:P46</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>46</v>
@@ -3147,7 +3115,7 @@
         <v>9</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>151</v>
@@ -3165,7 +3133,7 @@
     </row>
     <row r="48" s="22" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T48" s="23"/>
       <c r="AMJ48" s="0"/>
@@ -3299,7 +3267,7 @@
         <v>epsh:P53</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>50</v>
@@ -3308,7 +3276,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>42</v>
@@ -3319,8 +3287,8 @@
       <c r="I53" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R53" s="0" t="s">
-        <v>227</v>
+      <c r="R53" s="14" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,7 +3336,7 @@
         <v>7</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>42</v>
@@ -3385,7 +3353,7 @@
     </row>
     <row r="58" s="22" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T58" s="23"/>
       <c r="AMJ58" s="0"/>
@@ -3418,7 +3386,7 @@
       </c>
       <c r="M59" s="14"/>
       <c r="U59" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3468,7 +3436,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>42</v>
@@ -3481,14 +3449,14 @@
       </c>
       <c r="M61" s="14"/>
       <c r="U61" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes/meps"/>
     <hyperlink ref="E8" r:id="rId2" display="sh:name@en"/>
-    <hyperlink ref="R53" r:id="rId3" display="http://data.europarl.europa.eu/authority/person-type/AST-APA-GRP"/>
+    <hyperlink ref="R53" r:id="rId3" display="( &lt;http://data.europarl.europa.eu/authority/person-type/AST-APA&gt; &lt;http://data.europarl.europa.eu/authority/person-type/AST-APA-GRP&gt; &lt;http://data.europarl.europa.eu/authority/person-type/AST-LOC&gt; )"/>
     <hyperlink ref="U59" r:id="rId4" display="http://data.europarl.europa.eu/authority/membership-type/PERSON"/>
     <hyperlink ref="U61" r:id="rId5" display="http://data.europarl.europa.eu/authority/function/ASSISTANT"/>
   </hyperlinks>
